--- a/beat the dealer deck.xlsx
+++ b/beat the dealer deck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14932109353556bc/Desktop/Python/Beat the Dealer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83FED182-64D9-4DCE-803E-291F6BA68391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{83FED182-64D9-4DCE-803E-291F6BA68391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F773EF-4460-4C3A-9BF4-44A04240CA01}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CB9ADE26-7170-46F3-A29C-BE161472B699}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>Rank</t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>king</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>clubs</t>
+  </si>
+  <si>
+    <t>hearts</t>
+  </si>
+  <si>
+    <t>spades</t>
+  </si>
+  <si>
+    <t>diamonds</t>
+  </si>
+  <si>
+    <t>CardNum</t>
   </si>
 </sst>
 </file>
@@ -448,13 +490,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B064D7F-3936-4626-9511-1C799A294DC9}">
   <dimension ref="A2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,78 +516,138 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -552,6 +657,12 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -560,6 +671,12 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -568,6 +685,12 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -576,309 +699,543 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
